--- a/FurryMine/Assets/Datas/OreGradeTable.xlsx
+++ b/FurryMine/Assets/Datas/OreGradeTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IndieGame\ProjectMine\Unity\FurryMine\Assets\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24CBCC9B-C6BE-467C-B76B-C19999F8D4D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE773D1D-989C-47D3-BD6B-A2CE5BE3A508}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="2295" windowWidth="21600" windowHeight="11385" xr2:uid="{A7120F27-8D7B-44FE-9916-107686DC515D}"/>
+    <workbookView xWindow="3090" yWindow="2190" windowWidth="21600" windowHeight="11385" xr2:uid="{A7120F27-8D7B-44FE-9916-107686DC515D}"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -91,6 +91,14 @@
   </si>
   <si>
     <t>CoeffHealth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Probability</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProbabilityAmount</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -467,10 +475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F845BF17-BE85-427D-BA8F-A71511126E1F}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -481,7 +489,7 @@
     <col min="4" max="4" width="13.625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -494,8 +502,14 @@
       <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -508,8 +522,15 @@
       <c r="D2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2" s="1">
+        <v>19</v>
+      </c>
+      <c r="G2">
+        <f>SUM(E2:E11)</f>
+        <v>715</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -522,8 +543,11 @@
       <c r="D3" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -536,8 +560,11 @@
       <c r="D4" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4" s="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -550,8 +577,11 @@
       <c r="D5" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5" s="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -564,8 +594,11 @@
       <c r="D6" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E6" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -578,8 +611,11 @@
       <c r="D7" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E7" s="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -592,8 +628,11 @@
       <c r="D8" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E8" s="1">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -606,8 +645,11 @@
       <c r="D9" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E9" s="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -620,8 +662,11 @@
       <c r="D10" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E10" s="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -633,6 +678,9 @@
       </c>
       <c r="D11" s="1">
         <v>10</v>
+      </c>
+      <c r="E11" s="1">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/FurryMine/Assets/Datas/OreGradeTable.xlsx
+++ b/FurryMine/Assets/Datas/OreGradeTable.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IndieGame\ProjectMine\Unity\FurryMine\Assets\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE773D1D-989C-47D3-BD6B-A2CE5BE3A508}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFDCA0B3-DB49-4566-890C-A41C09F73A6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3090" yWindow="2190" windowWidth="21600" windowHeight="11385" xr2:uid="{A7120F27-8D7B-44FE-9916-107686DC515D}"/>
+    <workbookView xWindow="3435" yWindow="2535" windowWidth="21600" windowHeight="11385" xr2:uid="{A7120F27-8D7B-44FE-9916-107686DC515D}"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -478,7 +478,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -623,10 +623,10 @@
         <v>5</v>
       </c>
       <c r="C8" s="1">
-        <v>2.2000000000000002</v>
+        <v>3</v>
       </c>
       <c r="D8" s="1">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E8" s="1">
         <v>91</v>
@@ -640,10 +640,10 @@
         <v>4</v>
       </c>
       <c r="C9" s="1">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="D9" s="1">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E9" s="1">
         <v>96</v>
@@ -657,10 +657,10 @@
         <v>3</v>
       </c>
       <c r="C10" s="1">
-        <v>2.6</v>
+        <v>5</v>
       </c>
       <c r="D10" s="1">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="E10" s="1">
         <v>99</v>
@@ -674,10 +674,10 @@
         <v>12</v>
       </c>
       <c r="C11" s="1">
-        <v>2.8</v>
+        <v>10</v>
       </c>
       <c r="D11" s="1">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="E11" s="1">
         <v>100</v>
